--- a/statistics/HistoricalDistanceData/historical_distance/Q6839755-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q6839755-en.xlsx
@@ -31,30 +31,30 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Micronesia profile - Leaders</t>
+  </si>
+  <si>
     <t>Micronesia</t>
   </si>
   <si>
-    <t>Micronesia profile - Leaders</t>
-  </si>
-  <si>
     <t>Elections: Micronesia Congress 2017</t>
   </si>
   <si>
+    <t>Senator Alik L. Alik</t>
+  </si>
+  <si>
+    <t>Biography of President Urusemal</t>
+  </si>
+  <si>
     <t>Population of Micronesia (2020)</t>
   </si>
   <si>
-    <t>Biography of President Urusemal</t>
-  </si>
-  <si>
-    <t>Senator Alik L. Alik</t>
+    <t>2015-06-23T11:44:21UTC</t>
   </si>
   <si>
     <t>2012-01-12T22:35:15UTC</t>
   </si>
   <si>
-    <t>2015-06-23T11:44:21UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -64,22 +64,22 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://www.bbc.com/news/world-asia-pacific-15519473</t>
+  </si>
+  <si>
     <t>https://freedomhouse.org/report/freedom-world/2007/micronesia</t>
   </si>
   <si>
-    <t>https://www.bbc.com/news/world-asia-pacific-15519473</t>
-  </si>
-  <si>
     <t>http://www.electionguide.org/elections/id/2999/</t>
   </si>
   <si>
+    <t>http://www.cfsm.fm/index.php/public-info/112-members/biography/174-senator-alik-l-alik</t>
+  </si>
+  <si>
+    <t>https://www.fsmgov.org/bio/urusemal.html</t>
+  </si>
+  <si>
     <t>https://www.worldometers.info/world-population/micronesia-population/</t>
-  </si>
-  <si>
-    <t>https://www.fsmgov.org/bio/urusemal.html</t>
-  </si>
-  <si>
-    <t>http://www.cfsm.fm/index.php/public-info/112-members/biography/174-senator-alik-l-alik</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1707</v>
+        <v>2965</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -498,7 +498,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>2965</v>
+        <v>1707</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
